--- a/07_振り返り/70_開発体験シート.xlsx
+++ b/07_振り返り/70_開発体験シート.xlsx
@@ -2709,8 +2709,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -2726,6 +2726,8 @@
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2776,6 +2778,18 @@
     <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2894,21 +2908,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4134E9FE-82D5-435D-9A78-6ACC65CC1AFF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/07_振り返り/70_開発体験シート.xlsx
+++ b/07_振り返り/70_開発体験シート.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46B37FB-A299-405C-9E42-E184FE7E05E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEED2A14-4061-4988-964F-6F0811FC4AEC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1080" windowWidth="17565" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="285" windowWidth="18795" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="開発体験シート" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="80">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -873,6 +873,63 @@
     </rPh>
     <rPh sb="22" eb="23">
       <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト予想結果は実際のテスト結果と目視で比較して同じだとわかるように書く</t>
+    <rPh sb="3" eb="5">
+      <t>ヨソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モクシ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用するメソッド名を明記する</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>メイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終了判定条件についてグループの合意</t>
+    <rPh sb="0" eb="2">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ゴウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2067,11 +2124,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B7:I37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="H9" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2123,7 +2180,9 @@
       <c r="E9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="38"/>
+      <c r="F9" s="38" t="s">
+        <v>56</v>
+      </c>
       <c r="G9" s="38"/>
       <c r="H9" s="51" t="str">
         <f>IF(COUNTIF(E9:G9,"*●*"),"●",IF(COUNTIF(E9:G9,"*○*"),"○","－"))</f>
@@ -2144,7 +2203,9 @@
       <c r="E10" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G10" s="39"/>
       <c r="H10" s="39" t="str">
         <f t="shared" ref="H10:H37" si="0">IF(COUNTIF(E10:G10,"*●*"),"●",IF(COUNTIF(E10:G10,"*○*"),"○","－"))</f>
@@ -2163,7 +2224,9 @@
       <c r="E11" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="40"/>
+      <c r="F11" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G11" s="40"/>
       <c r="H11" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2184,7 +2247,9 @@
       <c r="E12" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="F12" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G12" s="42"/>
       <c r="H12" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2205,7 +2270,9 @@
       <c r="E13" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F13" s="39"/>
+      <c r="F13" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G13" s="39"/>
       <c r="H13" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2245,7 +2312,9 @@
       <c r="E15" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F15" s="42"/>
+      <c r="F15" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G15" s="42"/>
       <c r="H15" s="51" t="str">
         <f t="shared" si="0"/>
@@ -2266,7 +2335,9 @@
       <c r="E16" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G16" s="39"/>
       <c r="H16" s="39" t="str">
         <f>IF(COUNTIF(E16:G16,"*●*"),"●",IF(COUNTIF(E16:G16,"*○*"),"○","－"))</f>
@@ -2306,7 +2377,9 @@
       <c r="E18" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="G18" s="38"/>
       <c r="H18" s="51" t="str">
         <f>IF(COUNTIF(E18:G18,"*●*"),"●",IF(COUNTIF(E18:G18,"*○*"),"○","－"))</f>
@@ -2325,7 +2398,9 @@
       <c r="E19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G19" s="40"/>
       <c r="H19" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2348,13 +2423,17 @@
       <c r="E20" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F20" s="42"/>
+      <c r="F20" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
         <f>IF(COUNTIF(E20:G20,"*●*"),"●",IF(COUNTIF(E20:G20,"*○*"),"○","－"))</f>
-        <v>－</v>
-      </c>
-      <c r="I20" s="4"/>
+        <v>●</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="21" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="60"/>
@@ -2365,11 +2444,13 @@
       <c r="E21" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="39"/>
+      <c r="F21" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>●</v>
       </c>
       <c r="I21" s="9"/>
     </row>
@@ -2384,7 +2465,9 @@
       <c r="E22" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="39"/>
+      <c r="F22" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G22" s="39"/>
       <c r="H22" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2403,7 +2486,9 @@
       <c r="E23" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F23" s="39"/>
+      <c r="F23" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="str">
         <f>IF(COUNTIF(E23:G23,"*●*"),"●",IF(COUNTIF(E23:G23,"*○*"),"○","－"))</f>
@@ -2422,13 +2507,17 @@
       <c r="E24" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="39"/>
+      <c r="F24" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
-      </c>
-      <c r="I24" s="9"/>
+        <v>●</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
@@ -2439,7 +2528,9 @@
       <c r="E25" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F25" s="40"/>
+      <c r="F25" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2462,11 +2553,13 @@
       <c r="E26" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="42" t="s">
+        <v>57</v>
+      </c>
       <c r="G26" s="42"/>
       <c r="H26" s="51" t="str">
         <f>IF(COUNTIF(E26:G26,"*●*"),"●",IF(COUNTIF(E26:G26,"*○*"),"○","－"))</f>
-        <v>－</v>
+        <v>●</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>60</v>
@@ -2481,7 +2574,9 @@
       <c r="E27" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="39"/>
+      <c r="F27" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G27" s="39"/>
       <c r="H27" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2500,7 +2595,9 @@
       <c r="E28" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="F28" s="40"/>
+      <c r="F28" s="40" t="s">
+        <v>58</v>
+      </c>
       <c r="G28" s="40"/>
       <c r="H28" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2523,13 +2620,17 @@
       <c r="E29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="42" t="s">
+        <v>56</v>
+      </c>
       <c r="G29" s="42"/>
       <c r="H29" s="51" t="str">
         <f>IF(COUNTIF(E29:G29,"*●*"),"●",IF(COUNTIF(E29:G29,"*○*"),"○","－"))</f>
         <v>○</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="4" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="30" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="55"/>
@@ -2540,7 +2641,9 @@
       <c r="E30" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F30" s="39"/>
+      <c r="F30" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G30" s="39"/>
       <c r="H30" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2559,7 +2662,9 @@
       <c r="E31" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F31" s="39"/>
+      <c r="F31" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G31" s="39"/>
       <c r="H31" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2580,11 +2685,13 @@
       <c r="E32" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="39"/>
+      <c r="F32" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I32" s="9" t="s">
         <v>62</v>
@@ -2599,11 +2706,13 @@
       <c r="E33" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F33" s="39"/>
+      <c r="F33" s="39" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="39"/>
       <c r="H33" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I33" s="9"/>
     </row>
@@ -2616,7 +2725,9 @@
       <c r="E34" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F34" s="39"/>
+      <c r="F34" s="39" t="s">
+        <v>58</v>
+      </c>
       <c r="G34" s="39"/>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
@@ -2635,7 +2746,9 @@
       <c r="E35" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="G35" s="41"/>
       <c r="H35" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2654,7 +2767,9 @@
       <c r="E36" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="F36" s="39"/>
+      <c r="F36" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
@@ -2673,7 +2788,9 @@
       <c r="E37" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="40"/>
+      <c r="F37" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
@@ -2709,6 +2826,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2892,23 +3024,12 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4134E9FE-82D5-435D-9A78-6ACC65CC1AFF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2921,9 +3042,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BEF325-F02D-4A1C-BA75-4D05551B8A2B}"/>
 </file>